--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-1.042129368337718E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>2.084254350973588E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-3.126392559137623E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>4.336595101528E-28</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>-7.81549816014888E-15</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>3.126435384100319E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>3.64745278918185E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763407888513692E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763392260736144E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-3.647452789181861E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763400072057533E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763397471868887E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1051,37 +1051,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057454</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030174</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.733307933488667E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,37 +1125,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-1.042129368337649E-14</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.049467075842706E-19</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>3.12640862390596E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-2.478054343730286E-28</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>2.344775341142086E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-3.126403865523264E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.084258736675361E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921118593799146E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921123806265543E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y3">
         <v>-1.92111859556471E-09</v>
@@ -1182,37 +1182,37 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.905728108341769E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-1.042129368337649E-14</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.049467075842706E-19</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>3.12640862390596E-14</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-2.478054343730286E-28</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>2.344775341142086E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-3.126403865523264E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.084258736675361E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921118593799146E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921123806265543E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.92111859556471E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1313,37 +1313,37 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.905728108341769E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>-1.042129368340785E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.307585798694233E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039330441033475E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>-5.210646841703524E-15</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.307687739196948E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039329619168177E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>3.126388105022256E-14</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.822507001349028E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556044013723555E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-2.605323420851893E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822507595642991E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556054068255706E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,25 +1585,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458635707</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780331</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>5.414034099108204E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
@@ -1612,13 +1612,13 @@
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-1.563194052511112E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.435945069930989E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.797723787559414E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>-2.007453789289647E-28</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.435843131997331E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.79769836919908E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-2.084258736681524E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.940833424331775E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.18536923444813E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>2.08425873668151E-14</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940832829746323E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185350807982357E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1719,37 +1719,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443625</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>5.60387618338136E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-1.563194052511112E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.435945069930989E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.797723787559414E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>-2.007453789289647E-28</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.435843131997331E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.79769836919908E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-2.084258736681524E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.940833424331775E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.18536923444813E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>2.08425873668151E-14</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940832829746323E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185350807982357E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1850,37 +1850,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443625</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>5.60387618338136E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>-1.042129368340785E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.307585798694233E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039330441033475E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>-5.210646841703524E-15</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.307687739196948E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039329619168177E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>3.126388105022256E-14</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.822507001349028E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556044013723555E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-2.605323420851893E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822507595642991E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556054068255706E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,25 +2122,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458635707</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780331</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>5.414034099108204E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
@@ -2149,13 +2149,13 @@
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-1.563194052511112E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.435945069930989E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.797723787559414E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>-2.007453789289647E-28</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.435843131997331E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.79769836919908E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-2.084258736681524E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.940833424331775E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.18536923444813E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>2.08425873668151E-14</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940832829746323E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185350807982357E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2256,37 +2256,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443625</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>5.60387618338136E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-1.563194052511112E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.435945069930989E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.797723787559414E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>-2.007453789289647E-28</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.435843131997331E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.79769836919908E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-2.084258736681524E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.940833424331775E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.18536923444813E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>2.08425873668151E-14</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940832829746323E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185350807982357E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2387,37 +2387,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443625</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.47619071562778</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>5.60387618338136E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>5.518442968216389E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-9.473903143471624E-15</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.539519491928548E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>1.184227604043592E-14</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>7.10542735760366E-15</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.776435023521742E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>-7.104644931622573E-15</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>1.894780628694266E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763120858948373E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763123230914888E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>-9.473903143471295E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763125595498377E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763127968268029E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2662,37 +2662,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169611</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833941</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.182445351698558E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-7.105427357603656E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>1.302695294013518E-14</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>-2.368139472677324E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-5.921450079442546E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>7.105166549003332E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>9.473903143471295E-15</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587719584675168E-09</v>
       </c>
       <c r="V3">
         <v>1.58771721771992E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>6.081072991707686E-29</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587714847768218E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2793,37 +2793,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.175645514167201E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-7.105427357603656E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>1.302695294013518E-14</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>-2.368139472677324E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-5.921450079442546E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>7.105166549003332E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>9.473903143471295E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587719584675168E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.58771721771992E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>6.081072991707686E-29</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587714847768218E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2924,37 +2924,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.175645514167201E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-9.473903143471624E-15</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.539519491928548E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>1.184227604043592E-14</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>7.10542735760366E-15</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.776435023521742E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>-7.104644931622573E-15</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>1.894780628694266E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763120858948373E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763123230914888E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>-9.473903143471295E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763125595498377E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763127968268029E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3199,37 +3199,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169611</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833941</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.182445351698558E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-7.105427357603656E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>1.302695294013518E-14</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>-2.368139472677324E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-5.921450079442546E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>7.105166549003332E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>9.473903143471295E-15</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587719584675168E-09</v>
       </c>
       <c r="V3">
         <v>1.58771721771992E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>6.081072991707686E-29</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587714847768218E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3330,37 +3330,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.175645514167201E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-7.105427357603656E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>1.302695294013518E-14</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>-2.368139472677324E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-5.921450079442546E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>7.105166549003332E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>9.473903143471295E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587719584675168E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.58771721771992E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>6.081072991707686E-29</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587714847768218E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3461,37 +3461,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.175645514167201E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.355359497757392E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-1.18423789294039E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559811441236819E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551456961001874E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>9.473903143523165E-15</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559870458803787E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.551457536845651E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>1.894780628704581E-14</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833158669681005E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108911964983141E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>-1.894780628704583E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.833164639009923E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108907403495164E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3736,22 +3736,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.607808890389138</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.4340870104140591</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>5.921376219730107E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -3760,13 +3760,13 @@
         <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>-7.105427357642244E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.853279123090481E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171515314938513E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>9.473903143522963E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853220109787811E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171490162951137E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>2.368475785880666E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611064533254154E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.036295547119444E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>1.012727144770919E-28</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611058563673237E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036300791068098E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3867,37 +3867,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513554</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>5.93284518245123E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>-7.105427357642244E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.853279123090481E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171515314938513E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>9.473903143522963E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853220109787811E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171490162951137E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>2.368475785880666E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611064533254154E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.036295547119444E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>1.012727144770919E-28</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611058563673237E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036300791068098E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3998,37 +3998,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513554</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>5.93284518245123E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-1.18423789294039E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559811441236819E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551456961001874E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>9.473903143523165E-15</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559870458803787E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.551457536845651E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>1.894780628704581E-14</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833158669681005E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108911964983141E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>-1.894780628704583E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.833164639009923E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108907403495164E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4273,22 +4273,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.607808890389138</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.4340870104140591</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>5.921376219730107E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -4297,13 +4297,13 @@
         <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>-7.105427357642244E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.853279123090481E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171515314938513E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>9.473903143522963E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853220109787811E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171490162951137E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>2.368475785880666E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611064533254154E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.036295547119444E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>1.012727144770919E-28</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611058563673237E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036300791068098E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4404,37 +4404,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513554</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>5.93284518245123E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>-7.105427357642244E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.853279123090481E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171515314938513E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>9.473903143522963E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853220109787811E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171490162951137E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>2.368475785880666E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611064533254154E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.036295547119444E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>1.012727144770919E-28</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611058563673237E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036300791068098E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4535,37 +4535,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513554</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>5.93284518245123E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>6.124718641796086E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957757244350372E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394694493285134E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394106074453095E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.957756376163001E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394690151713882E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394241451663588E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>2.431549469053372E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842262230653613E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.84223611687782E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-1.563079535180407E-14</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.84225997444933E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842233511482416E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,25 +4810,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541444</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760899</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717376</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660591877624371E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
@@ -4837,13 +4837,13 @@
         <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859242922097503E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464832207735609E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464917264846692E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859251606226946E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464935485332936E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464872139250849E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>3.474178283074861E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280752226469695E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280759948706192E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>-1.737264009015547E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280757258408219E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280760817155331E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,25 +4941,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960904</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.40428917308947E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -4968,13 +4968,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859242922097503E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464832207735609E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464917264846692E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859251606226946E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464935485332936E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464872139250849E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>3.474178283074861E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280752226469695E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280759948706192E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>-1.737264009015547E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280757258408219E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280760817155331E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5075,22 +5075,22 @@
         <v>0.3666666746960904</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.40428917308947E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5099,13 +5099,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957757244350372E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394694493285134E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394106074453095E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.957756376163001E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394690151713882E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394241451663588E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>2.431549469053372E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842262230653613E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.84223611687782E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-1.563079535180407E-14</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.84225997444933E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842233511482416E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541444</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760899</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717376</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660591877624371E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
@@ -5377,13 +5377,13 @@
         <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859242922097503E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464832207735609E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464917264846692E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859251606226946E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464935485332936E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464872139250849E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>3.474178283074861E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280752226469695E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280759948706192E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>-1.737264009015547E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280757258408219E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280760817155331E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960904</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.40428917308947E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -5508,13 +5508,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859242922097503E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464832207735609E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464917264846692E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859251606226946E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464935485332936E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464872139250849E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>3.474178283074861E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280752226469695E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280759948706192E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>-1.737264009015547E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280757258408219E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280760817155331E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5615,22 +5615,22 @@
         <v>0.3666666746960904</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965887</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571845</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.40428917308947E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5639,13 +5639,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218363796362882E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138952765574659E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398952875437816E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705516814178742E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138953347227582E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.398939406776087E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705646113162448E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418403853146942E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221720508120841E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930919423335511E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.41840471218012E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221715640081102E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930910311004129E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,34 +5890,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695829</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443494</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.9077501785048</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042143</v>
       </c>
       <c r="AO2">
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046319659597298E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.662997250315746E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685918039817257E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046312204691636E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.663116658256618E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685104071678376E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.7279570660395E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40576442254883E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.7696706623185E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727994997078861E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.40562929963153E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769747378304976E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6024,22 +6024,22 @@
         <v>0.6194744497824225</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659335</v>
       </c>
       <c r="AI3">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463846</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6048,7 +6048,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046319659597298E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.662997250315746E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685918039817257E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046312204691636E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.663116658256618E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685104071678376E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.7279570660395E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40576442254883E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.7696706623185E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727994997078861E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.40562929963153E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769747378304976E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6155,22 +6155,22 @@
         <v>0.6194744497824225</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659335</v>
       </c>
       <c r="AI4">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463846</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6179,7 +6179,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138952765574659E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398952875437816E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705516814178742E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138953347227582E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.398939406776087E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705646113162448E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418403853146942E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221720508120841E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930919423335511E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.41840471218012E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221715640081102E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930910311004129E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,34 +6655,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695829</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443494</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.9077501785048</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042143</v>
       </c>
       <c r="AO2">
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046319659597298E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.662997250315746E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685918039817257E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046312204691636E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.663116658256618E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685104071678376E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.7279570660395E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40576442254883E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.7696706623185E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727994997078861E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.40562929963153E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769747378304976E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6789,22 +6789,22 @@
         <v>0.6194744497824225</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659335</v>
       </c>
       <c r="AI3">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463846</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6813,7 +6813,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046319659597298E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.662997250315746E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685918039817257E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046312204691636E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.663116658256618E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685104071678376E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.7279570660395E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40576442254883E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.7696706623185E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727994997078861E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.40562929963153E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769747378304976E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6920,22 +6920,22 @@
         <v>0.6194744497824225</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659335</v>
       </c>
       <c r="AI4">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792127</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605376</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463846</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6944,7 +6944,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560505</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444437935999174E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.111035878634818E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111101748052875E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444435567926073E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.111045748290655E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111130155580874E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-9.47425733821545E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175426073806363E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.1754216152781E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>7.895511444023435E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175431201766354E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175425322793041E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308629</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085262</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.881917103661102</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.302059086292207E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7222,7 +7222,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148152771517928E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037109770925301E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.036974471782739E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148144876151198E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.03704626227766E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.036953960068902E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>1.579207684320943E-15</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058463548987169E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058465089143927E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-3.158165101143011E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058463707638353E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058465483896502E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7329,31 +7329,31 @@
         <v>0.333333333404079</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366883</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036467763</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573893859142093E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO3">
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148152771517928E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037109770925301E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.036974471782739E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148144876151198E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.03704626227766E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.036953960068902E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>1.579207684320943E-15</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058463548987169E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058465089143927E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-3.158165101143011E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058463707638353E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058465483896502E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7460,31 +7460,31 @@
         <v>0.333333333404079</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366883</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.8819171036467763</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573893859142093E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO4">
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444437935999174E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.111035878634818E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111101748052875E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444435567926073E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.111045748290655E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111130155580874E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-9.47425733821545E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175426073806363E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.1754216152781E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>7.895511444023435E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175431201766354E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175425322793041E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,25 +7735,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308629</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085262</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.881917103661102</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.302059086292207E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7762,7 +7762,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148152771517928E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037109770925301E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.036974471782739E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148144876151198E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.03704626227766E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.036953960068902E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>1.579207684320943E-15</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058463548987169E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058465089143927E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-3.158165101143011E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058463707638353E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058465483896502E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7869,31 +7869,31 @@
         <v>0.333333333404079</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366883</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036467763</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573893859142093E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO3">
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148152771517928E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037109770925301E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.036974471782739E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148144876151198E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.03704626227766E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.036953960068902E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>1.579207684320943E-15</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058463548987169E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058465089143927E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-3.158165101143011E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058463707638353E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058465483896502E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8000,31 +8000,31 @@
         <v>0.333333333404079</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366883</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.8819171036467763</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857748</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296478</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.881917103650358</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573893859142093E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO4">
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387971605051818E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.62475841152657E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140196244978152E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721721960047413E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624760633567609E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.14019897389226E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.721728267264605E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117774377632512E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947072633431976E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505953546946251E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117776435538041E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947072810536182E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505955718414154E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,25 +8275,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499186</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155454</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906659631</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403301</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155924</v>
@@ -8302,13 +8302,13 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749157861260568E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800710619450662E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738331810566937E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749135642693128E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800692984879659E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.738468333805303E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725924991382966E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490109703148613E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353152928694135E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725904411238593E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490104779029397E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353078323723898E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,25 +8406,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860902</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422148</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652277</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883911</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8433,13 +8433,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749157861260568E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800710619450662E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738331810566937E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749135642693128E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800692984879659E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.738468333805303E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725924991382966E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490109703148613E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353152928694135E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725904411238593E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490104779029397E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353078323723898E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860902</v>
       </c>
       <c r="AH4">
-        <v>0.857602546342215</v>
+        <v>0.8576025463422148</v>
       </c>
       <c r="AI4">
         <v>0.954718490652277</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168883911</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165827</v>
@@ -8564,13 +8564,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.62475841152657E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140196244978152E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721721960047413E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624760633567609E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.14019897389226E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.721728267264605E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117774377632512E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947072633431976E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505953546946251E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117776435538041E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947072810536182E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505955718414154E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,25 +8815,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499186</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155454</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906659631</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403301</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155924</v>
@@ -8842,13 +8842,13 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749157861260568E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800710619450662E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738331810566937E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749135642693128E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800692984879659E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.738468333805303E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725924991382966E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490109703148613E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353152928694135E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725904411238593E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490104779029397E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353078323723898E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,25 +8946,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860902</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422148</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652277</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883911</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8973,13 +8973,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749157861260568E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800710619450662E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738331810566937E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749135642693128E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800692984879659E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.738468333805303E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725924991382966E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490109703148613E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353152928694135E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725904411238593E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490104779029397E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353078323723898E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,25 +9077,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860902</v>
       </c>
       <c r="AH4">
-        <v>0.857602546342215</v>
+        <v>0.8576025463422148</v>
       </c>
       <c r="AI4">
         <v>0.954718490652277</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355476</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556987</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168883911</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165827</v>
@@ -9104,13 +9104,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013758</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957761151877382E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394307347695886E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394533148874742E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957754204411703E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.39446367154218E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394498415670201E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.821133355907324E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842271924791306E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.84225456040503E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.473749701440578E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842282345581085E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842261508438053E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947059</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874864</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072233</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484090748019799E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859099626936398E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464792276302842E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464913860223342E-10</v>
       </c>
       <c r="Q3">
         <v>-9.85913436451153E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464635956404244E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666792E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-1.04212361533512E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353738E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045049E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.389500871246617E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280749202645169E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361477</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748795362</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343343501082835E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859099626936398E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464792276302842E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464913860223342E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.85913436451153E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464635956404244E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666792E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-1.04212361533512E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353738E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045049E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.389500871246617E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280749202645169E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361477</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748795362</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343343501082835E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957761151877382E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394307347695886E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394533148874742E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957754204411703E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.39446367154218E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394498415670201E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.821133355907324E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842271924791306E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.84225456040503E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.473749701440578E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842282345581085E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842261508438053E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947059</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874864</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072233</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484090748019799E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859099626936398E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464792276302842E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464913860223342E-10</v>
       </c>
       <c r="Q3">
         <v>-9.85913436451153E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464635956404244E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666792E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-1.04212361533512E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353738E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045049E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.389500871246617E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280749202645169E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361477</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748795362</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343343501082835E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859099626936398E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464792276302842E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464913860223342E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.85913436451153E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464635956404244E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666792E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-1.04212361533512E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353738E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045049E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.389500871246617E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280749202645169E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361477</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748795362</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104355</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489821</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343343501082835E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878530205561855E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968237</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.272170697170909E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904143546509581E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.132502485256064E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.2721628827872E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904154620903055E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132511591233334E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.092299139827003E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349338044952854E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033312376044132E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.092253126474446E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.349318979610663E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033331934062286E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316503079</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859038523</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143199</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815880391</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488144</v>
       </c>
       <c r="AO2">
         <v>128.6858355510056</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ2">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.5738195526043E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.34710953317302E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.04417227005834E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.573938156966866E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346999759472585E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.044172270034893E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364121133875664E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449767472225035E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.677666738716873E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.364169923300686E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449772864089082E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.677666738450839E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,25 +10566,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316592204</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858794368</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.4396365303621521</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.92547381454422</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441591</v>
@@ -10593,13 +10593,13 @@
         <v>128.685835555246</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ3">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.5738195526043E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.34710953317302E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.04417227005834E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.573938156966866E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346999759472585E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.044172270034893E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364121133875664E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449767472225035E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.677666738716873E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.364169923300686E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449772864089082E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.677666738450839E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,25 +10697,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316592204</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858794368</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.4396365303621521</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.92547381454422</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441591</v>
@@ -10724,13 +10724,13 @@
         <v>128.685835555246</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ4">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.272170697170909E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904143546509581E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.132502485256064E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.2721628827872E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904154620903055E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132511591233334E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.092299139827003E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349338044952854E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033312376044132E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.092253126474446E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.349318979610663E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033331934062286E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316503079</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859038523</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143199</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815880391</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488144</v>
       </c>
       <c r="AO2">
         <v>128.6858355510056</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ2">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.5738195526043E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.34710953317302E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.04417227005834E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.573938156966866E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346999759472585E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.044172270034893E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364121133875664E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449767472225035E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.677666738716873E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.364169923300686E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449772864089082E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.677666738450839E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,25 +11106,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316592204</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858794368</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.4396365303621521</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.92547381454422</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441591</v>
@@ -11133,13 +11133,13 @@
         <v>128.685835555246</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ3">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.5738195526043E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.34710953317302E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.04417227005834E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.573938156966866E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346999759472585E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.044172270034893E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364121133875664E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449767472225035E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.677666738716873E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.364169923300686E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449772864089082E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.677666738450839E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,25 +11237,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316592204</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858794368</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.4396365303621521</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569924</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855405</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501941</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.92547381454422</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441591</v>
@@ -11264,13 +11264,13 @@
         <v>128.685835555246</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814878264</v>
       </c>
       <c r="AQ4">
         <v>-153.8407182453229</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444440699227444E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111251749541223E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772719E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444442278311973E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111204387072547E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451378E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>6.315936982826401E-15</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175420221459447E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613124E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>-6.31587749125908E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175418642059153E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175421803997281E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635037</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670285</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964806</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.642167877587861E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981411</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980556</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148125137979855E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.037062866527704E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041064E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148109348029427E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037015496228995E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036983918580915E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>6.315961351517065E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.05847972290349E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058474987367938E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-9.473922456388286E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.05848130193362E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11649,37 +11649,37 @@
         <v>0.6666666667001113</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291281</v>
       </c>
       <c r="AI3">
         <v>0.3333333335709896</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822792194509664E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799335</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835666</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148125137979855E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.037062866527704E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041064E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148109348029427E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037015496228995E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036983918580915E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>6.315961351517065E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.05847972290349E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058474987367938E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-9.473922456388286E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.05848130193362E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001113</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291281</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709896</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822792194509664E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799335</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835666</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444440699227444E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111251749541223E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772719E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444442278311973E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111204387072547E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451378E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>6.315936982826401E-15</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175420221459447E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613124E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>-6.31587749125908E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175418642059153E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175421803997281E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635037</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670285</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964806</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.642167877587861E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981411</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980556</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148125137979855E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.037062866527704E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041064E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148109348029427E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037015496228995E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036983918580915E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>6.315961351517065E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.05847972290349E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058474987367938E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-9.473922456388286E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.05848130193362E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12414,37 +12414,37 @@
         <v>0.6666666667001113</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291281</v>
       </c>
       <c r="AI3">
         <v>0.3333333335709896</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822792194509664E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799335</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835666</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148125137979855E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.037062866527704E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041064E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148109348029427E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037015496228995E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036983918580915E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>6.315961351517065E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.05847972290349E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058474987367938E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-9.473922456388286E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.05848130193362E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001113</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291281</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709896</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909595</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386032</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523623</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822792194509664E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799335</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835666</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.358019382554294E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871888</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941668674573694E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538368394495096E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506374520405825E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941667526494969E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538370835062032E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506377213238635E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588935368700579E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623732644764995E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.29284016229219E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588971064858171E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623731538992262E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292863956665373E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,25 +12820,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.7679592756099298</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825741</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156706165</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525611809</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -12847,7 +12847,7 @@
         <v>131.4656840130514</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472145824290802E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127896674944263E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354613670526873E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.472154898772106E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127876854249308E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354580797366679E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207926475551011E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764316265472378E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.862949243263786E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207915609200095E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764299204180036E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,25 +12951,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.565546279271928</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494978</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523956783</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016063</v>
@@ -12978,7 +12978,7 @@
         <v>131.4656840156438</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472145824290802E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127896674944263E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354613670526873E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.472154898772106E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127876854249308E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354580797366679E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207926475551011E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764316265472378E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.862949243263786E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207915609200095E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764299204180036E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,34 +13082,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.565546279271928</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494978</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523956783</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156438</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941668674573694E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538368394495096E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506374520405825E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941667526494969E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538370835062032E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506377213238635E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588935368700579E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623732644764995E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.29284016229219E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588971064858171E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623731538992262E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292863956665373E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,25 +13360,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.7679592756099298</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825741</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156706165</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525611809</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -13387,7 +13387,7 @@
         <v>131.4656840130514</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472145824290802E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127896674944263E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354613670526873E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.472154898772106E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127876854249308E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354580797366679E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207926475551011E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764316265472378E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.862949243263786E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207915609200095E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764299204180036E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,25 +13491,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.565546279271928</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494978</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523956783</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016063</v>
@@ -13518,7 +13518,7 @@
         <v>131.4656840156438</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472145824290802E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127896674944263E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354613670526873E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.472154898772106E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127876854249308E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354580797366679E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207926475551011E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764316265472378E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.862949243263786E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207915609200095E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764299204180036E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,34 +13622,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.565546279271928</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494978</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256416</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745894</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523956783</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156438</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370521</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-1.042129368337718E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>2.084254350973588E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-3.126392559137623E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>4.336595101528E-28</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>-7.81549816014888E-15</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>3.126435384100319E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>3.64745278918185E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763407888513692E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763392260736144E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-3.647452789181861E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763400072057533E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763397471868887E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15025,37 +15025,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057454</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030174</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.733307933488667E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,37 +15099,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-1.042129368337649E-14</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.049467075842706E-19</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>3.12640862390596E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-2.478054343730286E-28</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>2.344775341142086E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-3.126403865523264E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.084258736675361E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921118593799146E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921123806265543E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y3">
         <v>-1.92111859556471E-09</v>
@@ -15156,37 +15156,37 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.905728108341769E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-1.042129368337649E-14</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.049467075842706E-19</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>3.12640862390596E-14</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-2.478054343730286E-28</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>2.344775341142086E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-3.126403865523264E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.084258736675361E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921118593799146E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921123806265543E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.92111859556471E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15287,37 +15287,37 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593761</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493869</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.905728108341769E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.812112757472691E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
